--- a/main/carla_runs/credit/credit_stats_carla.xlsx
+++ b/main/carla_runs/credit/credit_stats_carla.xlsx
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.09</v>
+        <v>9.06</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08445402331247007</v>
+        <v>0.2420452041110066</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06138967062101527</v>
+        <v>0.06782578315039454</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07850434620751939</v>
+        <v>0.1025827849439245</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3785938897200183</v>
+        <v>0.238683256575942</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2583345324912902</v>
+        <v>0.3038493923259878</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2412774470876368</v>
+        <v>0.2470126788991783</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2346314348176875</v>
+        <v>0.2288250599216753</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>2.679173240150767e-05</v>
+        <v>0.05980141166644689</v>
       </c>
       <c r="D5" t="n">
-        <v>7.177969250739961e-10</v>
+        <v>0.0007213470278319244</v>
       </c>
       <c r="E5" t="n">
-        <v>2.679173240150767e-05</v>
+        <v>0.01557299677543472</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006170563230075954</v>
+        <v>0.1154084678727883</v>
       </c>
       <c r="D6" t="n">
-        <v>3.810433481013256e-05</v>
+        <v>0.00226752011983907</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006170563230075954</v>
+        <v>0.02989674877322614</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01800372456497382</v>
+        <v>0.1421636548960235</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0003241343002607552</v>
+        <v>0.003182519236178738</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01800372456497382</v>
+        <v>0.03784719749647844</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03169974067103599</v>
+        <v>0.2445616572524659</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001004874343709116</v>
+        <v>0.009606642761390709</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03169974067103599</v>
+        <v>0.06133239147452948</v>
       </c>
     </row>
     <row r="9">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>1.425994605472996</v>
+        <v>2.0601394884809</v>
       </c>
       <c r="D9" t="n">
-        <v>1.065350096370681</v>
+        <v>1.188572419413231</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
